--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/74/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/74/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07107107107107107</v>
+        <v>0.1684168416841684</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.5405405405406</v>
+        <v>376.0976097609761</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005605605605605606</v>
+        <v>0.01069106910691069</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8708708708708709</v>
+        <v>0.748974897489749</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975.975975975976</v>
+        <v>527.9227922792279</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>867.867867867868</v>
+        <v>868.946894689469</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.06506506506507</v>
+        <v>573.1845184518452</v>
       </c>
     </row>
   </sheetData>
